--- a/results_method1_and_2/method_entropies/KLd_JSd_pitch_simplified.xlsx
+++ b/results_method1_and_2/method_entropies/KLd_JSd_pitch_simplified.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f69e34da3c4bcbcf/PhD/method_entropies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="605" documentId="8_{C5299D97-77F4-4B2A-B423-9E23C601F977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97EC286F-B4F2-477E-8F7A-4FF3708E24DC}"/>
+  <xr:revisionPtr revIDLastSave="883" documentId="8_{C5299D97-77F4-4B2A-B423-9E23C601F977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E0179DA-9F2D-41CD-AECC-6585729F4C27}"/>
   <bookViews>
-    <workbookView xWindow="15750" yWindow="1890" windowWidth="21600" windowHeight="11340" xr2:uid="{3ED24930-B42E-48B4-96F2-9A09EE378CDE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3ED24930-B42E-48B4-96F2-9A09EE378CDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="evaluation_pitch" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,9 +35,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="27">
+  <si>
+    <t>KL-divergence</t>
+  </si>
   <si>
     <t>JS-divergence</t>
+  </si>
+  <si>
+    <t>KLd: karykis -- pro-karykis</t>
+  </si>
+  <si>
+    <t>KLd: balasis -- karykis</t>
+  </si>
+  <si>
+    <t>KLd: balasis -- pro-karykis</t>
+  </si>
+  <si>
+    <t>KLd: pro-karykis -- karykis</t>
+  </si>
+  <si>
+    <t>KLd: karykis -- balasis</t>
+  </si>
+  <si>
+    <t>KLd: pro-karykis -- balasis</t>
   </si>
   <si>
     <t>pro-karykis -- karykis</t>
@@ -83,6 +105,18 @@
   <si>
     <t>scale</t>
   </si>
+  <si>
+    <t>evaluation_of_karykis</t>
+  </si>
+  <si>
+    <t>scale_of_evaluation</t>
+  </si>
+  <si>
+    <t>5-grams</t>
+  </si>
+  <si>
+    <t>case_study</t>
+  </si>
 </sst>
 </file>
 
@@ -111,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -134,12 +168,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -149,15 +217,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -175,7 +269,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -211,7 +305,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> (pitch) simplified</a:t>
+              <a:t> (pitch)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -257,7 +351,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$2</c:f>
+              <c:f>Sheet1!$O$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -283,8 +377,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11028928139146209"/>
-                  <c:y val="1.6238334791484354E-2"/>
+                  <c:x val="-7.9875109361329827E-2"/>
+                  <c:y val="-7.6354257801108188E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -298,6 +392,72 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-5BF3-4B3F-80B8-567907B2FBD5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.5763998250218672E-2"/>
+                  <c:y val="-6.2465368912219391E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-5BF3-4B3F-80B8-567907B2FBD5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.5986220472440946E-2"/>
+                  <c:y val="-7.6354257801108188E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-5BF3-4B3F-80B8-567907B2FBD5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.4582239720033978E-3"/>
+                  <c:y val="-6.709499854184893E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-FAA4-4F3F-BD68-26B14BAE0D99}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -360,9 +520,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$5</c:f>
+              <c:f>Sheet1!$N$3:$N$6</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2-grams</c:v>
                 </c:pt>
@@ -371,16 +531,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$5</c:f>
+              <c:f>Sheet1!$O$3:$O$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.39400000000000002</c:v>
                 </c:pt>
@@ -389,6 +552,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.26100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19800000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -405,7 +571,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>Sheet1!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -431,8 +597,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.7841208037962026E-2"/>
-                  <c:y val="7.1793890347040035E-2"/>
+                  <c:x val="-6.3208442694663192E-2"/>
+                  <c:y val="5.3275371828521434E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -453,8 +619,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.2945289531037563E-2"/>
-                  <c:y val="7.1793890347039868E-2"/>
+                  <c:x val="-5.7652887139107614E-2"/>
+                  <c:y val="5.790500145815098E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -475,8 +641,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.8201652148040861E-2"/>
-                  <c:y val="4.8645742198891805E-2"/>
+                  <c:x val="-4.2208442694663166E-2"/>
+                  <c:y val="6.7164260717410329E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -490,6 +656,28 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-5BF3-4B3F-80B8-567907B2FBD5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.7652887139107711E-2"/>
+                  <c:y val="5.790500145815098E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-FAA4-4F3F-BD68-26B14BAE0D99}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -552,9 +740,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$5</c:f>
+              <c:f>Sheet1!$N$3:$N$6</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2-grams</c:v>
                 </c:pt>
@@ -563,16 +751,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$5</c:f>
+              <c:f>Sheet1!$P$3:$P$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.22700000000000001</c:v>
                 </c:pt>
@@ -581,6 +772,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16900000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -597,7 +791,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>Sheet1!$Q$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -623,8 +817,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.12693460985381599"/>
-                  <c:y val="-5.3206109652960049E-2"/>
+                  <c:x val="-9.6528871391076375E-3"/>
+                  <c:y val="-4.8576480023330461E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -645,8 +839,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.0607421205398081E-2"/>
-                  <c:y val="3.4756853310002916E-2"/>
+                  <c:x val="-4.8751093613297828E-3"/>
+                  <c:y val="-5.7835739282589678E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -667,8 +861,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.0041105492043979E-2"/>
-                  <c:y val="-1.1539442986293464E-2"/>
+                  <c:x val="-1.5986220472440946E-2"/>
+                  <c:y val="-5.7835739282589761E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -682,6 +876,28 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-5BF3-4B3F-80B8-567907B2FBD5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.1791557305336833E-2"/>
+                  <c:y val="-3.0057961504811985E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-FAA4-4F3F-BD68-26B14BAE0D99}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -744,9 +960,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$5</c:f>
+              <c:f>Sheet1!$N$3:$N$6</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2-grams</c:v>
                 </c:pt>
@@ -755,16 +971,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$5</c:f>
+              <c:f>Sheet1!$Q$3:$Q$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.39</c:v>
                 </c:pt>
@@ -773,6 +992,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.24199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -984,7 +1206,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1020,13 +1242,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> (pitch) </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>simplified</a:t>
+              <a:t> (pitch)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1072,7 +1288,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$2</c:f>
+              <c:f>Sheet1!$O$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1098,8 +1314,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11052927579089046"/>
-                  <c:y val="-4.394685039370079E-2"/>
+                  <c:x val="-0.12138695043106046"/>
+                  <c:y val="-9.487277631962672E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1120,8 +1336,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.5703377969978028E-2"/>
-                  <c:y val="-9.0243146689997084E-2"/>
+                  <c:x val="-1.5919669152120682E-2"/>
+                  <c:y val="-8.0983887430737908E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1142,8 +1358,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.2923119729960202E-2"/>
-                  <c:y val="-1.616907261592301E-2"/>
+                  <c:x val="3.4438272375347766E-3"/>
+                  <c:y val="-5.7835739282589678E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1219,7 +1435,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$9:$A$11</c:f>
+              <c:f>Sheet1!$N$9:$N$11</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1236,7 +1452,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$B$11</c:f>
+              <c:f>Sheet1!$O$9:$O$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1264,7 +1480,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>Sheet1!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1290,8 +1506,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.0484627470571428E-2"/>
-                  <c:y val="6.7164260717410246E-2"/>
+                  <c:x val="-4.9114234391529898E-2"/>
+                  <c:y val="6.2534631087780609E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1312,8 +1528,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.3264885710589122E-2"/>
-                  <c:y val="7.1793890347039951E-2"/>
+                  <c:x val="-5.1880448161480672E-2"/>
+                  <c:y val="6.2534631087780693E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1334,8 +1550,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.2143852750518235E-2"/>
-                  <c:y val="5.3275371828521351E-2"/>
+                  <c:x val="-5.1880448161480672E-2"/>
+                  <c:y val="8.1053149606299127E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1411,7 +1627,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$9:$A$11</c:f>
+              <c:f>Sheet1!$N$9:$N$11</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1428,7 +1644,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$9:$C$11</c:f>
+              <c:f>Sheet1!$P$9:$P$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1456,7 +1672,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>Sheet1!$Q$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1482,8 +1698,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11330953403090815"/>
-                  <c:y val="3.9386482939632546E-2"/>
+                  <c:x val="-1.043997915025238E-2"/>
+                  <c:y val="-6.7094998541849027E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1496,7 +1712,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-7C5C-4204-848C-F6AF41510FF9}"/>
+                  <c16:uniqueId val="{00000001-B088-401D-8A3A-C64F7B5D11EC}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1504,8 +1720,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11052927579089043"/>
-                  <c:y val="-0.10876166520851568"/>
+                  <c:x val="-9.6173189067891976E-2"/>
+                  <c:y val="-0.11339129483814532"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1526,8 +1742,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.2923119729960202E-2"/>
-                  <c:y val="-6.709499854184893E-2"/>
+                  <c:x val="1.2276263096494109E-2"/>
+                  <c:y val="-6.9098133566638355E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1603,7 +1819,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$9:$A$11</c:f>
+              <c:f>Sheet1!$N$9:$N$11</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1620,7 +1836,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$9:$D$11</c:f>
+              <c:f>Sheet1!$Q$9:$Q$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1843,7 +2059,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1879,13 +2095,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> (pitch) </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>simplified</a:t>
+              <a:t> (pitch)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1931,7 +2141,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$2</c:f>
+              <c:f>Sheet1!$O$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1975,6 +2185,50 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.0175258030720384E-2"/>
+                  <c:y val="-8.0983887430737825E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-CDD4-49A1-8618-2EBDA57F5884}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.0200514436811125E-2"/>
+                  <c:y val="-7.1724628171478566E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-CDD4-49A1-8618-2EBDA57F5884}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2004,14 +2258,12 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
+            <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2034,7 +2286,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$15:$A$17</c:f>
+              <c:f>Sheet1!$N$15:$N$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2051,18 +2303,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$15:$B$17</c:f>
+              <c:f>Sheet1!$O$15:$O$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.314</c:v>
+                  <c:v>0.30499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29299999999999998</c:v>
+                  <c:v>0.29099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.251</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2079,7 +2331,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>Sheet1!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2127,8 +2379,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.9092859046328499E-2"/>
-                  <c:y val="7.1793890347039868E-2"/>
+                  <c:x val="-6.9022394423216921E-2"/>
+                  <c:y val="5.3275371828521434E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2149,8 +2401,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.1857868913277198E-2"/>
-                  <c:y val="8.1053149606299127E-2"/>
+                  <c:x val="-3.1994887246305385E-2"/>
+                  <c:y val="5.7905001458151147E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2196,14 +2448,12 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
+            <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2226,7 +2476,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$15:$A$17</c:f>
+              <c:f>Sheet1!$N$15:$N$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2243,18 +2493,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$15:$C$17</c:f>
+              <c:f>Sheet1!$P$15:$P$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.19900000000000001</c:v>
+                  <c:v>0.189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.192</c:v>
+                  <c:v>0.188</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.182</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2271,7 +2521,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>Sheet1!$Q$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2319,8 +2569,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.1212937981917274E-2"/>
-                  <c:y val="3.0127223680373287E-2"/>
+                  <c:x val="-1.6046292287575269E-2"/>
+                  <c:y val="-5.3206109652960132E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2341,8 +2591,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.3857436962129381E-2"/>
-                  <c:y val="-5.7835739282589678E-2"/>
+                  <c:x val="1.7412298534935144E-2"/>
+                  <c:y val="-1.616907261592301E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2388,14 +2638,12 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
+            <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2418,7 +2666,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$15:$A$17</c:f>
+              <c:f>Sheet1!$N$15:$N$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2435,7 +2683,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$15:$D$17</c:f>
+              <c:f>Sheet1!$Q$15:$Q$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2658,7 +2906,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2694,13 +2942,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> (pitch) </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>simplified</a:t>
+              <a:t> (pitch)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2746,7 +2988,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$2</c:f>
+              <c:f>Sheet1!$O$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2816,8 +3058,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.558903200792096E-2"/>
-                  <c:y val="1.6238334791484399E-2"/>
+                  <c:x val="2.0200514436811125E-2"/>
+                  <c:y val="2.3494459025955091E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2893,7 +3135,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$21:$A$23</c:f>
+              <c:f>Sheet1!$N$21:$N$23</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2910,7 +3152,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$21:$B$23</c:f>
+              <c:f>Sheet1!$O$21:$O$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2938,7 +3180,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>Sheet1!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2964,7 +3206,7 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.467977149871206E-2"/>
+                  <c:x val="-5.5081314913837567E-2"/>
                   <c:y val="5.7905001458151063E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -2986,8 +3228,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.1911881722621366E-2"/>
-                  <c:y val="5.3275371828521434E-2"/>
+                  <c:x val="-4.9504883110085787E-2"/>
+                  <c:y val="4.8645742198891805E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3008,8 +3250,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.914399194653047E-2"/>
-                  <c:y val="5.3275371828521434E-2"/>
+                  <c:x val="-2.105212778195786E-3"/>
+                  <c:y val="4.4016112569262175E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3085,7 +3327,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$21:$A$23</c:f>
+              <c:f>Sheet1!$N$21:$N$23</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3102,7 +3344,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$21:$C$23</c:f>
+              <c:f>Sheet1!$P$21:$P$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3130,7 +3372,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>Sheet1!$Q$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3153,11 +3395,55 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10526920114760334"/>
+                  <c:y val="6.9790755322250535E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-8554-492E-ACFB-AA3312EF88F5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.9987371796954654E-2"/>
+                  <c:y val="-6.7094998541848971E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-8554-492E-ACFB-AA3312EF88F5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.8356921784011752E-2"/>
-                  <c:y val="-5.3206109652960049E-2"/>
+                  <c:x val="1.7412298534935144E-2"/>
+                  <c:y val="-3.931722076407116E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3233,7 +3519,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$21:$A$23</c:f>
+              <c:f>Sheet1!$N$21:$N$23</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3250,7 +3536,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$21:$D$23</c:f>
+              <c:f>Sheet1!$Q$21:$Q$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3473,7 +3759,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3509,13 +3795,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> (pitch) </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>simplified</a:t>
+              <a:t> (pitch)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -3561,7 +3841,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$2</c:f>
+              <c:f>Sheet1!$O$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3587,8 +3867,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.3763998250218722E-2"/>
-                  <c:y val="3.01272236803732E-2"/>
+                  <c:x val="-0.12428053189033043"/>
+                  <c:y val="2.3494459025954666E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3609,8 +3889,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.776133199915172E-4"/>
-                  <c:y val="-8.0983887430737866E-2"/>
+                  <c:x val="-0.10762078621434776"/>
+                  <c:y val="-0.1180209244677749"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3631,8 +3911,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.3235663501276495E-2"/>
-                  <c:y val="-4.394685039370079E-2"/>
+                  <c:x val="5.7013779527559053E-2"/>
+                  <c:y val="-5.7835739282589678E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3708,7 +3988,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$27:$A$29</c:f>
+              <c:f>Sheet1!$N$27:$N$29</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3725,7 +4005,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$27:$B$29</c:f>
+              <c:f>Sheet1!$O$27:$O$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3753,7 +4033,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>Sheet1!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3779,8 +4059,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.741286319616546E-2"/>
-                  <c:y val="0.10420129775444736"/>
+                  <c:x val="-6.5986220472440973E-2"/>
+                  <c:y val="4.8645742198891805E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3801,8 +4081,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.4646650028729413E-2"/>
-                  <c:y val="7.1793890347039951E-2"/>
+                  <c:x val="-6.0430664916885493E-2"/>
+                  <c:y val="5.3275371828521434E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3823,8 +4103,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.464665002872951E-2"/>
-                  <c:y val="6.7164260717410329E-2"/>
+                  <c:x val="-4.6541776027996501E-2"/>
+                  <c:y val="4.8645742198891805E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3900,7 +4180,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$27:$A$29</c:f>
+              <c:f>Sheet1!$N$27:$N$29</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3917,7 +4197,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$27:$C$29</c:f>
+              <c:f>Sheet1!$P$27:$P$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3945,7 +4225,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>Sheet1!$Q$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3968,11 +4248,33 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.8208442694663172E-2"/>
+                  <c:y val="-3.9317220764071202E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-63B0-4D34-85DF-591731122D84}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.8339744994352031E-2"/>
-                  <c:y val="-2.0798702245552639E-2"/>
+                  <c:x val="-3.2652887139107613E-2"/>
+                  <c:y val="-9.0243146689997125E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3986,6 +4288,28 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-63B0-4D34-85DF-591731122D84}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.7430664916885389E-2"/>
+                  <c:y val="-9.0243146689997125E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-63B0-4D34-85DF-591731122D84}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4048,7 +4372,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$27:$A$29</c:f>
+              <c:f>Sheet1!$N$27:$N$29</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4065,7 +4389,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$27:$D$29</c:f>
+              <c:f>Sheet1!$Q$27:$Q$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4288,7 +4612,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4324,13 +4648,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> (pitch) </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>simplified</a:t>
+              <a:t> (pitch)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -4376,7 +4694,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$2</c:f>
+              <c:f>Sheet1!$O$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4424,8 +4742,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.10135582900946878"/>
-                  <c:y val="-8.5613517060367406E-2"/>
+                  <c:x val="-3.5430664916885492E-2"/>
+                  <c:y val="-4.8576480023330419E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4446,8 +4764,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.8598225406084372E-2"/>
-                  <c:y val="-8.0983887430737825E-2"/>
+                  <c:x val="1.734711286089239E-2"/>
+                  <c:y val="-2.0798702245552639E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4461,6 +4779,28 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-AAD1-4A78-ADDC-82B67E854D76}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.9936029340999431E-3"/>
+                  <c:y val="2.3494459025955091E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-D1EB-4F01-B85F-7118A37A769D}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4523,9 +4863,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$33:$A$35</c:f>
+              <c:f>Sheet1!$N$33:$N$36</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2-grams</c:v>
                 </c:pt>
@@ -4534,16 +4874,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$33:$B$35</c:f>
+              <c:f>Sheet1!$O$33:$O$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.33800000000000002</c:v>
                 </c:pt>
@@ -4552,6 +4895,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.23699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19600000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4568,7 +4914,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>Sheet1!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4591,11 +4937,55 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.7652887139107614E-2"/>
+                  <c:y val="5.7905001458151147E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-4C19-4CEA-80C9-4EF0F996FB04}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.2097331583552058E-2"/>
+                  <c:y val="5.7905001458150897E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-4C19-4CEA-80C9-4EF0F996FB04}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.1875109361329833E-2"/>
-                  <c:y val="5.3275371828521351E-2"/>
+                  <c:x val="-5.1276041479122625E-2"/>
+                  <c:y val="5.790500145815098E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4609,6 +4999,28 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-4C19-4CEA-80C9-4EF0F996FB04}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.640660542432206E-2"/>
+                  <c:y val="6.2534631087780609E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-D1EB-4F01-B85F-7118A37A769D}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4671,9 +5083,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$33:$A$35</c:f>
+              <c:f>Sheet1!$N$33:$N$36</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2-grams</c:v>
                 </c:pt>
@@ -4682,24 +5094,30 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$33:$C$35</c:f>
+              <c:f>Sheet1!$P$33:$P$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.15</c:v>
+                  <c:v>0.13600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16700000000000001</c:v>
+                  <c:v>0.17199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17100000000000001</c:v>
+                  <c:v>0.17799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16500000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4716,7 +5134,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>Sheet1!$Q$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4764,8 +5182,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.4331079191427197E-3"/>
-                  <c:y val="-8.0983887430737825E-2"/>
+                  <c:x val="-0.10209733158355201"/>
+                  <c:y val="4.4016112569262092E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4786,8 +5204,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.9978729539449697E-2"/>
-                  <c:y val="-5.3206109652960049E-2"/>
+                  <c:x val="-0.10471347331583553"/>
+                  <c:y val="2.0867964421113942E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4801,6 +5219,28 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-4C19-4CEA-80C9-4EF0F996FB04}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.4536722842040405E-2"/>
+                  <c:y val="-7.1724628171478566E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-D1EB-4F01-B85F-7118A37A769D}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4863,9 +5303,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$33:$A$35</c:f>
+              <c:f>Sheet1!$N$33:$N$36</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2-grams</c:v>
                 </c:pt>
@@ -4874,24 +5314,30 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$33:$D$35</c:f>
+              <c:f>Sheet1!$Q$33:$Q$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.32100000000000001</c:v>
+                  <c:v>0.32900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26300000000000001</c:v>
+                  <c:v>0.27600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.219</c:v>
+                  <c:v>0.22800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.187</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5103,7 +5549,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5139,13 +5585,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> (pitch) </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>simplified</a:t>
+              <a:t> (pitch)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -5191,7 +5631,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$2</c:f>
+              <c:f>Sheet1!$O$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5236,11 +5676,33 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.9859127055718335E-2"/>
+                  <c:y val="2.5497594050743658E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-0C3A-4916-A7F7-4F19EF560B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.37250438774074E-2"/>
-                  <c:y val="-2.2801837270341207E-3"/>
+                  <c:x val="2.2898085794290951E-2"/>
+                  <c:y val="-6.9098133566637505E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5316,7 +5778,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$39:$A$41</c:f>
+              <c:f>Sheet1!$N$39:$N$41</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -5333,7 +5795,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$39:$B$41</c:f>
+              <c:f>Sheet1!$O$39:$O$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5361,7 +5823,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>Sheet1!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5387,8 +5849,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.542607765580033E-2"/>
-                  <c:y val="6.2534631087780693E-2"/>
+                  <c:x val="-6.0418573273284135E-2"/>
+                  <c:y val="4.8645742198891805E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5409,8 +5871,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.1655088553965903E-2"/>
-                  <c:y val="6.2534631087780609E-2"/>
+                  <c:x val="-5.2086907366526602E-2"/>
+                  <c:y val="5.790500145815098E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5431,8 +5893,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.339249509286526E-2"/>
-                  <c:y val="5.7905001458151063E-2"/>
+                  <c:x val="-4.6532463428688269E-2"/>
+                  <c:y val="5.3275371828521434E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5508,7 +5970,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$39:$A$41</c:f>
+              <c:f>Sheet1!$N$39:$N$41</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -5525,7 +5987,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$39:$C$41</c:f>
+              <c:f>Sheet1!$P$39:$P$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5553,7 +6015,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>Sheet1!$Q$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5579,8 +6041,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.10673904496130351"/>
-                  <c:y val="1.1608705161854726E-2"/>
+                  <c:x val="-0.10763134674490997"/>
+                  <c:y val="-1.1539442986293422E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5601,8 +6063,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.7971032344908742E-2"/>
-                  <c:y val="-6.7094998541848971E-2"/>
+                  <c:x val="-1.0428577832739074E-2"/>
+                  <c:y val="-5.320610965296009E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5623,8 +6085,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.8216648236673639E-2"/>
-                  <c:y val="-6.2465368912219307E-2"/>
+                  <c:x val="3.4006973669967626E-2"/>
+                  <c:y val="-5.320610965296009E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5700,7 +6162,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$39:$A$41</c:f>
+              <c:f>Sheet1!$N$39:$N$41</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -5717,7 +6179,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$39:$D$41</c:f>
+              <c:f>Sheet1!$Q$39:$Q$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5940,7 +6402,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5976,13 +6438,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> (pitch) </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>simplified</a:t>
+              <a:t> (pitch)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -6028,7 +6484,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$2</c:f>
+              <c:f>Sheet1!$O$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6054,8 +6510,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.12815968037868181"/>
-                  <c:y val="-1.1539442986293381E-2"/>
+                  <c:x val="-0.12880832986706553"/>
+                  <c:y val="-2.2801837270342057E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6068,7 +6524,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-513C-4306-9A4A-E2E10BE217A1}"/>
+                  <c16:uniqueId val="{00000001-4AFD-43B1-8AB4-03043C9C427C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -6076,8 +6532,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11238619461724696"/>
-                  <c:y val="-5.7835739282589761E-2"/>
+                  <c:x val="-1.8684491081803044E-2"/>
+                  <c:y val="-5.3206109652960049E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6091,6 +6547,28 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-513C-4306-9A4A-E2E10BE217A1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.5852446544911995E-3"/>
+                  <c:y val="-8.0983887430737825E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-513C-4306-9A4A-E2E10BE217A1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -6153,7 +6631,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$45:$A$47</c:f>
+              <c:f>Sheet1!$N$45:$N$47</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -6170,7 +6648,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$45:$B$47</c:f>
+              <c:f>Sheet1!$O$45:$O$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6198,7 +6676,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>Sheet1!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6224,8 +6702,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.2749351312032506E-2"/>
-                  <c:y val="5.3275371828521434E-2"/>
+                  <c:x val="-5.7408599234883062E-2"/>
+                  <c:y val="7.1793890347039951E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6246,8 +6724,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.1718941688651487E-2"/>
-                  <c:y val="5.790500145815098E-2"/>
+                  <c:x val="-4.6344568334003057E-2"/>
+                  <c:y val="8.568277923592893E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6268,8 +6746,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.9658122441889499E-2"/>
-                  <c:y val="6.2534631087780693E-2"/>
+                  <c:x val="-5.4642591509663059E-2"/>
+                  <c:y val="4.8645742198891721E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6345,7 +6823,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$45:$A$47</c:f>
+              <c:f>Sheet1!$N$45:$N$47</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -6362,7 +6840,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$45:$C$47</c:f>
+              <c:f>Sheet1!$P$45:$P$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6390,7 +6868,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>Sheet1!$Q$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6416,8 +6894,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.12065900183478273"/>
-                  <c:y val="-7.6354257801108286E-2"/>
+                  <c:x val="-0.12379278464016309"/>
+                  <c:y val="-4.8576480023330419E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6438,8 +6916,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.3766732892551214E-2"/>
-                  <c:y val="-0.10413203557888598"/>
+                  <c:x val="-0.13485681554104309"/>
+                  <c:y val="-5.7835739282589678E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6460,8 +6938,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.1781259160342634E-2"/>
-                  <c:y val="-1.616907261592301E-2"/>
+                  <c:x val="9.0088772827718426E-3"/>
+                  <c:y val="-2.5428331875182269E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6537,7 +7015,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$45:$A$47</c:f>
+              <c:f>Sheet1!$N$45:$N$47</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -6554,7 +7032,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$45:$D$47</c:f>
+              <c:f>Sheet1!$Q$45:$Q$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6574,6 +7052,415 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-513C-4306-9A4A-E2E10BE217A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="320468848"/>
+        <c:axId val="320468432"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="320468848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="320468432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="320468432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.60000000000000009"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="320468848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="el-GR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>case_study </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>(pitch)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pro-karykis -- karykis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$N$52:$N$55</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2-grams</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3-grams</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$52:$O$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.254</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14499999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C22A-4CC4-ABFF-C85273078A3E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7094,6 +7981,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -11222,17 +12149,533 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>267432</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>501893</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -11262,13 +12705,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>300721</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -11300,13 +12743,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>394137</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>6569</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>83945</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>82769</xdr:rowOff>
@@ -11338,13 +12781,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>153865</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>36635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>451806</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>112835</xdr:rowOff>
@@ -11376,13 +12819,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>278423</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>102577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>512884</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>178777</xdr:rowOff>
@@ -11414,13 +12857,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>14654</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>102577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>329711</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>178777</xdr:rowOff>
@@ -11452,13 +12895,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>392905</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>100744</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -11490,13 +12933,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>148828</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>130968</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>463886</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>16668</xdr:rowOff>
@@ -11526,11 +12969,49 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>231322</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>163287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>465783</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>48987</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24AAEF89-B2E2-47A7-9773-4501E8E5B674}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -11826,529 +13307,1688 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A346A115-14B5-481B-955F-3ACECE3B790A}">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:AC55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AN19" sqref="AN19"/>
+    <sheetView tabSelected="1" topLeftCell="K33" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AD62" sqref="AD62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="9.5703125" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="O1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2">
+        <v>8.65</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="E3" s="2">
+        <v>9.24</v>
+      </c>
+      <c r="F3" s="2">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2">
+        <v>28.81</v>
+      </c>
+      <c r="D4" s="2">
+        <v>11.66</v>
+      </c>
+      <c r="E4" s="2">
+        <v>28.01</v>
+      </c>
+      <c r="F4" s="2">
+        <v>27.04</v>
+      </c>
+      <c r="G4" s="2">
+        <v>11.29</v>
+      </c>
+      <c r="H4" s="2">
+        <v>26.94</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.30199999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2">
+        <v>58.79</v>
+      </c>
+      <c r="D5" s="2">
+        <v>35.11</v>
+      </c>
+      <c r="E5" s="2">
+        <v>55.01</v>
+      </c>
+      <c r="F5" s="2">
+        <v>57.25</v>
+      </c>
+      <c r="G5" s="2">
+        <v>33.94</v>
+      </c>
+      <c r="H5" s="2">
+        <v>54.61</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2">
+        <v>75.8</v>
+      </c>
+      <c r="D6" s="2">
+        <v>57.88</v>
+      </c>
+      <c r="E6" s="2">
+        <v>71.25</v>
+      </c>
+      <c r="F6" s="2">
+        <v>75.569999999999993</v>
+      </c>
+      <c r="G6" s="2">
+        <v>56.66</v>
+      </c>
+      <c r="H6" s="2">
+        <v>71.47</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.29</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4.59</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1.32</v>
+      </c>
+      <c r="H9" s="2">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2">
+        <v>16.66</v>
+      </c>
+      <c r="D10" s="2">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="E10" s="2">
+        <v>16.91</v>
+      </c>
+      <c r="F10" s="2">
+        <v>16.48</v>
+      </c>
+      <c r="G10" s="2">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="H10" s="2">
+        <v>16.3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.191</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0.246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2">
+        <v>40.53</v>
+      </c>
+      <c r="D11" s="2">
+        <v>25.94</v>
+      </c>
+      <c r="E11" s="2">
+        <v>37.99</v>
+      </c>
+      <c r="F11" s="2">
+        <v>39.07</v>
+      </c>
+      <c r="G11" s="2">
+        <v>25.11</v>
+      </c>
+      <c r="H11" s="2">
+        <v>36.94</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.183</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0.19700000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2">
+        <v>54.81</v>
+      </c>
+      <c r="D12" s="2">
+        <v>42.22</v>
+      </c>
+      <c r="E12" s="2">
+        <v>55.04</v>
+      </c>
+      <c r="F12" s="2">
+        <v>54.34</v>
+      </c>
+      <c r="G12" s="2">
+        <v>41.12</v>
+      </c>
+      <c r="H12" s="2">
+        <v>54.25</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0.153</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.154</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4.22</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3.45</v>
+      </c>
+      <c r="F15" s="2">
+        <v>3.96</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1.42</v>
+      </c>
+      <c r="H15" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.189</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0.27800000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2">
+        <v>17.91</v>
+      </c>
+      <c r="D16" s="2">
+        <v>7.32</v>
+      </c>
+      <c r="E16" s="2">
+        <v>16.29</v>
+      </c>
+      <c r="F16" s="2">
+        <v>17.829999999999998</v>
+      </c>
+      <c r="G16" s="2">
+        <v>6.87</v>
+      </c>
+      <c r="H16" s="2">
+        <v>15.91</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.188</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2">
+        <v>46.88</v>
+      </c>
+      <c r="D17" s="2">
+        <v>20.48</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45.86</v>
+      </c>
+      <c r="F17" s="2">
+        <v>46.49</v>
+      </c>
+      <c r="G17" s="2">
+        <v>20.63</v>
+      </c>
+      <c r="H17" s="2">
+        <v>45.37</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0.249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="2">
+        <v>71.62</v>
+      </c>
+      <c r="D18" s="2">
+        <v>34.94</v>
+      </c>
+      <c r="E18" s="2">
+        <v>72.98</v>
+      </c>
+      <c r="F18" s="2">
+        <v>71.16</v>
+      </c>
+      <c r="G18" s="2">
+        <v>35.04</v>
+      </c>
+      <c r="H18" s="2">
+        <v>71.38</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0.157</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2">
+        <v>9.91</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1.52</v>
+      </c>
+      <c r="E21" s="2">
+        <v>9.09</v>
+      </c>
+      <c r="F21" s="2">
+        <v>9.58</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1.56</v>
+      </c>
+      <c r="H21" s="2">
+        <v>9.24</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0.42099999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="2">
+        <v>33.909999999999997</v>
+      </c>
+      <c r="D22" s="2">
+        <v>8.25</v>
+      </c>
+      <c r="E22" s="2">
+        <v>34.35</v>
+      </c>
+      <c r="F22" s="2">
+        <v>34.979999999999997</v>
+      </c>
+      <c r="G22" s="2">
+        <v>7.91</v>
+      </c>
+      <c r="H22" s="2">
+        <v>34.46</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0.189</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="2">
+        <v>63.43</v>
+      </c>
+      <c r="D23" s="2">
+        <v>23.29</v>
+      </c>
+      <c r="E23" s="2">
+        <v>66.510000000000005</v>
+      </c>
+      <c r="F23" s="2">
+        <v>65.510000000000005</v>
+      </c>
+      <c r="G23" s="2">
+        <v>22.51</v>
+      </c>
+      <c r="H23" s="2">
+        <v>67.53</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="2">
+        <v>79.55</v>
+      </c>
+      <c r="D24" s="2">
+        <v>38.950000000000003</v>
+      </c>
+      <c r="E24" s="2">
+        <v>86.1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>82.44</v>
+      </c>
+      <c r="G24" s="2">
+        <v>38.71</v>
+      </c>
+      <c r="H24" s="2">
+        <v>86.47</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="C26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2">
+        <v>6.94</v>
+      </c>
+      <c r="D27" s="2">
+        <v>3.21</v>
+      </c>
+      <c r="E27" s="2">
+        <v>7.09</v>
+      </c>
+      <c r="F27" s="2">
+        <v>7.46</v>
+      </c>
+      <c r="G27" s="2">
+        <v>3.46</v>
+      </c>
+      <c r="H27" s="2">
+        <v>7.56</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>0.38100000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="2">
+        <v>25.33</v>
+      </c>
+      <c r="D28" s="2">
+        <v>16.87</v>
+      </c>
+      <c r="E28" s="2">
+        <v>23.58</v>
+      </c>
+      <c r="F28" s="2">
+        <v>25.25</v>
+      </c>
+      <c r="G28" s="2">
+        <v>16.29</v>
+      </c>
+      <c r="H28" s="2">
+        <v>23.96</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0.308</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>0.317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="2">
+        <v>48.29</v>
+      </c>
+      <c r="D29" s="2">
+        <v>34.74</v>
+      </c>
+      <c r="E29" s="2">
+        <v>49.32</v>
+      </c>
+      <c r="F29" s="2">
+        <v>48.68</v>
+      </c>
+      <c r="G29" s="2">
+        <v>33.479999999999997</v>
+      </c>
+      <c r="H29" s="2">
+        <v>49.58</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0.254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="2">
+        <v>61.38</v>
+      </c>
+      <c r="D30" s="2">
+        <v>50.26</v>
+      </c>
+      <c r="E30" s="2">
+        <v>64.5</v>
+      </c>
+      <c r="F30" s="2">
+        <v>60.76</v>
+      </c>
+      <c r="G30" s="2">
+        <v>48.9</v>
+      </c>
+      <c r="H30" s="2">
+        <v>63.18</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0.183</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="2">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="E33" s="2">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="F33" s="2">
+        <v>4.38</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="H33" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="P33" s="2">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>0.32900000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="2">
+        <v>18.3</v>
+      </c>
+      <c r="D34" s="2">
+        <v>5.98</v>
+      </c>
+      <c r="E34" s="2">
+        <v>18.47</v>
+      </c>
+      <c r="F34" s="2">
+        <v>18.27</v>
+      </c>
+      <c r="G34" s="2">
+        <v>5.53</v>
+      </c>
+      <c r="H34" s="2">
+        <v>18.73</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="P34" s="2">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="2">
+        <v>44.84</v>
+      </c>
+      <c r="D35" s="2">
+        <v>20.11</v>
+      </c>
+      <c r="E35" s="2">
+        <v>44.01</v>
+      </c>
+      <c r="F35" s="2">
+        <v>44.25</v>
+      </c>
+      <c r="G35" s="2">
+        <v>19.12</v>
+      </c>
+      <c r="H35" s="2">
+        <v>44.17</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="P35" s="2">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+      <c r="B36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="2">
+        <v>71.209999999999994</v>
+      </c>
+      <c r="D36" s="2">
+        <v>38.729999999999997</v>
+      </c>
+      <c r="E36" s="2">
+        <v>66.77</v>
+      </c>
+      <c r="F36" s="2">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="G36" s="2">
+        <v>38.880000000000003</v>
+      </c>
+      <c r="H36" s="2">
+        <v>67.09</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="P36" s="2">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>0.187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B38" s="2"/>
+      <c r="C38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="D39" s="2">
+        <v>2.77</v>
+      </c>
+      <c r="E39" s="2">
+        <v>6.82</v>
+      </c>
+      <c r="F39" s="2">
+        <v>7.92</v>
+      </c>
+      <c r="G39" s="2">
+        <v>2.42</v>
+      </c>
+      <c r="H39" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O39" s="2">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="P39" s="2">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>0.38500000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+      <c r="B40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="2">
+        <v>30.96</v>
+      </c>
+      <c r="D40" s="2">
+        <v>13.99</v>
+      </c>
+      <c r="E40" s="2">
+        <v>29.26</v>
+      </c>
+      <c r="F40" s="2">
+        <v>32.18</v>
+      </c>
+      <c r="G40" s="2">
+        <v>13.53</v>
+      </c>
+      <c r="H40" s="2">
+        <v>29.05</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O40" s="2">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="P40" s="2">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
+      <c r="B41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="2">
+        <v>58.58</v>
+      </c>
+      <c r="D41" s="2">
+        <v>32.090000000000003</v>
+      </c>
+      <c r="E41" s="2">
+        <v>57.93</v>
+      </c>
+      <c r="F41" s="2">
+        <v>60.36</v>
+      </c>
+      <c r="G41" s="2">
+        <v>31.06</v>
+      </c>
+      <c r="H41" s="2">
+        <v>57.89</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O41" s="2">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="P41" s="2">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
+      <c r="B42" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="2">
+        <v>75.709999999999994</v>
+      </c>
+      <c r="D42" s="2">
+        <v>48.18</v>
+      </c>
+      <c r="E42" s="2">
+        <v>77.06</v>
+      </c>
+      <c r="F42" s="2">
+        <v>76.150000000000006</v>
+      </c>
+      <c r="G42" s="2">
+        <v>46.57</v>
+      </c>
+      <c r="H42" s="2">
+        <v>76.739999999999995</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O42" s="2">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="P42" s="2">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>0.223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B44" s="2"/>
+      <c r="C44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S44" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="16"/>
+      <c r="W44" s="16"/>
+      <c r="X44" s="16"/>
+      <c r="Y44" s="16"/>
+      <c r="Z44" s="16"/>
+      <c r="AA44" s="16"/>
+      <c r="AB44" s="16"/>
+      <c r="AC44" s="16"/>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="2">
+        <v>2.78</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1.97</v>
+      </c>
+      <c r="E45" s="2">
+        <v>3.64</v>
+      </c>
+      <c r="F45" s="2">
+        <v>3.11</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1.86</v>
+      </c>
+      <c r="H45" s="2">
+        <v>3.67</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O45" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="P45" s="2">
+        <v>0.186</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="S45" s="4">
+        <v>0</v>
+      </c>
+      <c r="T45" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="U45" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="V45" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="W45" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="X45" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="Y45" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="Z45" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="AA45" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="AB45" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="AC45" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
+      <c r="B46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="2">
+        <v>15.22</v>
+      </c>
+      <c r="D46" s="2">
+        <v>12.37</v>
+      </c>
+      <c r="E46" s="2">
+        <v>18.079999999999998</v>
+      </c>
+      <c r="F46" s="2">
+        <v>15.61</v>
+      </c>
+      <c r="G46" s="2">
+        <v>10.88</v>
+      </c>
+      <c r="H46" s="2">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O46" s="2">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="P46" s="2">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>0.254</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A47" s="13"/>
+      <c r="B47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="2">
+        <v>43.57</v>
+      </c>
+      <c r="D47" s="2">
+        <v>32.72</v>
+      </c>
+      <c r="E47" s="2">
+        <v>48</v>
+      </c>
+      <c r="F47" s="2">
+        <v>45.1</v>
+      </c>
+      <c r="G47" s="2">
+        <v>31.22</v>
+      </c>
+      <c r="H47" s="2">
+        <v>47.47</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O47" s="2">
+        <v>0.218</v>
+      </c>
+      <c r="P47" s="2">
+        <v>0.184</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A48" s="13"/>
+      <c r="B48" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="2">
+        <v>68.790000000000006</v>
+      </c>
+      <c r="D48" s="2">
+        <v>52.78</v>
+      </c>
+      <c r="E48" s="2">
+        <v>70.040000000000006</v>
+      </c>
+      <c r="F48" s="2">
+        <v>69.23</v>
+      </c>
+      <c r="G48" s="2">
+        <v>51.12</v>
+      </c>
+      <c r="H48" s="2">
+        <v>69.12</v>
+      </c>
+      <c r="N48" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O48" s="2">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="P48" s="2">
+        <v>0.154</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B51" s="7"/>
+      <c r="C51" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
+      <c r="N51" s="2"/>
+      <c r="O51" s="12" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.39400000000000002</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.39</v>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="2">
+        <v>3.21</v>
+      </c>
+      <c r="F52" s="2">
+        <v>2.91</v>
+      </c>
+      <c r="N52" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O52" s="2">
+        <v>0.254</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.30199999999999999</v>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="15"/>
+      <c r="B53" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="2">
+        <v>12.63</v>
+      </c>
+      <c r="F53" s="2">
+        <v>12.55</v>
+      </c>
+      <c r="N53" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O53" s="2">
+        <v>0.217</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.24199999999999999</v>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="15"/>
+      <c r="B54" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="2">
+        <v>24.41</v>
+      </c>
+      <c r="F54" s="2">
+        <v>24.77</v>
+      </c>
+      <c r="N54" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="O54" s="2">
+        <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.26800000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.191</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.246</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.183</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.19700000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.314</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.27800000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.192</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.26600000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0.251</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.182</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.249</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.42</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.42099999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.189</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.27200000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="1">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.38100000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0.308</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.317</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="1">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="C29" s="1">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0.254</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="1">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0.32100000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="1">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0.26300000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="1">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="C35" s="1">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0.219</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="1">
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="C39" s="1">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0.38500000000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="1">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="D40" s="1">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="1">
-        <v>0.27400000000000002</v>
-      </c>
-      <c r="C41" s="1">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0.28499999999999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="C45" s="1">
-        <v>0.186</v>
-      </c>
-      <c r="D45" s="1">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="P45" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="1">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="C46" s="1">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="D46" s="1">
-        <v>0.254</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="1">
-        <v>0.218</v>
-      </c>
-      <c r="C47" s="1">
-        <v>0.184</v>
-      </c>
-      <c r="D47" s="1">
-        <v>0.21</v>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="15"/>
+      <c r="B55" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="2">
+        <v>32.47</v>
+      </c>
+      <c r="F55" s="2">
+        <v>33.4</v>
+      </c>
+      <c r="N55" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O55" s="2">
+        <v>0.14499999999999999</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="F44:P44"/>
+  <mergeCells count="12">
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="S44:AC44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A21:A24"/>
   </mergeCells>
-  <conditionalFormatting sqref="F45:K45 B45:D47 B39:D41 B33:D35 B27:D29 B21:D23 B15:D17 B9:D11 B3:D5">
+  <conditionalFormatting sqref="S45:X45 O45:Q47 O39:Q41 O33:Q35 O27:Q29 O21:Q23 O15:Q17 O9:Q11 O3:Q5">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9:Q11 S45:X45">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O27:Q29 S45:X45">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O33:Q36 S45:X45">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O45:Q47 S45:X45">
     <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O52:O55 S45:X45">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:Q6 S45:X45">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12362,4 +15002,780 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0464147A-4ECD-4B1E-8457-11B58279E28B}">
+  <dimension ref="A1:T51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D44" activeCellId="8" sqref="D2:D5 D8:D11 D14:D17 D20:D23 D26:D29 D32:D35 D38:D40 D41 D44:D47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F1" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="F3" s="7">
+        <f>ROUND(B3/C3,3)</f>
+        <v>1.7270000000000001</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="P3" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="R3" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="S3" s="4">
+        <v>2.75</v>
+      </c>
+      <c r="T3" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="F4" s="7">
+        <f>ROUND(B4/C4,3)</f>
+        <v>1.5529999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.214</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="F5" s="7">
+        <f>ROUND(B5/C5,3)</f>
+        <v>1.3180000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.252</v>
+      </c>
+      <c r="F9" s="7">
+        <f>ROUND(B9/C9,3)</f>
+        <v>1.6990000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.184</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.248</v>
+      </c>
+      <c r="F10" s="7">
+        <f>ROUND(B10/C10,3)</f>
+        <v>1.2390000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.215</v>
+      </c>
+      <c r="F11" s="7">
+        <f>ROUND(B11/C11,3)</f>
+        <v>1.1379999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.189</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.308</v>
+      </c>
+      <c r="F15" s="7">
+        <f>ROUND(B15/C15,3)</f>
+        <v>1.7509999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.309</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.191</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="F16" s="7">
+        <f>ROUND(B16/C16,3)</f>
+        <v>1.6180000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="F17" s="7">
+        <f>ROUND(B17/C17,3)</f>
+        <v>1.4610000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="F21" s="7">
+        <f>ROUND(B21/C21,3)</f>
+        <v>2.9249999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.371</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="F22" s="7">
+        <f>ROUND(B22/C22,3)</f>
+        <v>1.9119999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.183</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="F23" s="7">
+        <f>ROUND(B23/C23,3)</f>
+        <v>1.546</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="F27" s="7">
+        <f>ROUND(B27/C27,3)</f>
+        <v>1.6519999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.253</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="F28" s="7">
+        <f>ROUND(B28/C28,3)</f>
+        <v>1.3120000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.248</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F29" s="7">
+        <f>ROUND(B29/C29,3)</f>
+        <v>1.089</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.157</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="F33" s="7">
+        <f>ROUND(B33/C33,3)</f>
+        <v>2.1779999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.308</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="F34" s="7">
+        <f>ROUND(B34/C34,3)</f>
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="F35" s="7">
+        <f>ROUND(B35/C35,3)</f>
+        <v>1.5649999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="F39" s="7">
+        <f>ROUND(B39/C39,3)</f>
+        <v>1.972</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.311</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="F40" s="7">
+        <f>ROUND(B40/C40,3)</f>
+        <v>1.2250000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.309</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="F41" s="7">
+        <f>ROUND(B41/C41,3)</f>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.248</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.157</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="F45" s="7">
+        <f>ROUND(B45/C45,3)</f>
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.248</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.252</v>
+      </c>
+      <c r="F46" s="7">
+        <f>ROUND(B46/C46,3)</f>
+        <v>1.417</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="F47" s="7">
+        <f>ROUND(B47/C47,3)</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>0</v>
+      </c>
+      <c r="B51" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="H51" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="I51" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J51" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="K51" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A50:K50"/>
+    <mergeCell ref="H2:T2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B45:D47 B39:D41 B33:D35 B27:D29 B21:D23 B15:D17 B9:D11 B3:D5">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:F51">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:F51 B45:D47 B39:D41 B33:D35 B27:D29 B21:D23 B15:D17 B9:D11 B3:D5">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:T3">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F5 F9:F11 F15:F17 F21:F23 F27:F29 F33:F35 F39:F41 F45:F47 H3:T3">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:T3 F3:F5 F9:F11 F15:F17 F21:F23 F27:F29 F33:F35 F39:F41 F45:F47">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>